--- a/data/Acids_impacts.xlsx
+++ b/data/Acids_impacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2C40B-5913-4F02-A614-8F1DC19EF901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC0FF7A-78ED-482D-BE46-7948E0B3D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ADC046F5-979B-4435-B2D9-F731C439C800}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{ADC046F5-979B-4435-B2D9-F731C439C800}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E30:E31"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,31 +597,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>5.1237205638950001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="4">
-        <v>2.13943368838755E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4">
-        <v>2.52995393131978E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="4">
-        <v>1.01807052752206E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G2" s="4">
-        <v>3.8942243981606498E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="4">
-        <v>1.4706353444516301E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I2" s="4">
-        <v>8.0023958968832697E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J2" s="4">
-        <v>0.42429665349370599</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>1.35145622436592E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -632,31 +632,31 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>1.5127477051390601</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>2.8939988770951901</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>2.7587481419853499</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>2.54391971033247</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>0.42101449803429197</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
-        <v>3.89062133477456</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
-        <v>0.90927415735478001</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>14.3729966119145</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4">
-        <v>6.0942722304258602E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -667,31 +667,31 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>3.7192440596815601E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="4">
-        <v>4.9374204537545501E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4">
-        <v>8.3190326261699393E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="4">
-        <v>5.0128621344855198E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="4">
-        <v>1.46351316038228E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H4" s="4">
-        <v>9.2305893245118696E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="4">
-        <v>1.34916608984382E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="J4" s="4">
-        <v>8.0778891532631396E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="4">
-        <v>3.4015889621754898E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -702,31 +702,31 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>1.5072420549179499</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>2.79458327630863</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>2.7334396837792898</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>2.53654380216134</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>0.41887198959812899</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>3.8797294755632401</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
-        <v>0.90908392458619702</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>14.36018558118</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4">
-        <v>6.0560742421370203E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -737,31 +737,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>1.7864061614202701E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>9.4478180332810094E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4">
-        <v>1.6989425579896002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="4">
-        <v>2.36304603664009E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G6" s="4">
-        <v>6.7899527578025405E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H6" s="4">
-        <v>1.6612698868003399E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I6" s="4">
-        <v>5.5316159598087103E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="J6" s="4">
-        <v>4.7331415811534298E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K6" s="4">
-        <v>4.1820986670860699E-5</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -772,31 +772,31 @@
         <v>9</v>
       </c>
       <c r="C7" s="4">
-        <v>9.1113316034004104</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
-        <v>42.404581451698803</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4">
-        <v>47.832980965759205</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4">
-        <v>12.15146838137087</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
-        <v>6.6018570790507702</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4">
-        <v>23.999510678436931</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
-        <v>0.64938758620680559</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>28.898924149261688</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>0.42550285963288403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -807,31 +807,31 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>1.7408686748319201E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="D8" s="4">
-        <v>1.2562911239771299E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E8" s="4">
-        <v>1.762992098483E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F8" s="4">
-        <v>6.3289752919415598E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="G8" s="4">
-        <v>2.4110924946824601E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="H8" s="4">
-        <v>1.3477309449492901E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I8" s="4">
-        <v>3.4998552168775302E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="J8" s="4">
-        <v>1.2417876304454101E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K8" s="4">
-        <v>8.3683410670004796E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -842,31 +842,31 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>8.8932189676800197E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>6.2562055336024304E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4">
-        <v>6.9189913266705597E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F9" s="4">
-        <v>1.5166849465133999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G9" s="4">
-        <v>3.9772422835520499E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H9" s="4">
-        <v>3.9684883414025998E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="4">
-        <v>5.5143113852137895E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J9" s="4">
-        <v>0.15720136486175501</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="4">
-        <v>4.64377150434044E-5</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -877,31 +877,31 @@
         <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>7.5941064189485104E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>2.8947393296193199E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="E10" s="4">
-        <v>3.1481224474878399E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F10" s="4">
-        <v>1.18268492407252E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="G10" s="4">
-        <v>3.0312994349659601E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H10" s="4">
-        <v>1.4377515777453599E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I10" s="4">
-        <v>1.9580738234511098E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J10" s="4">
-        <v>3.01789746309343E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="K10" s="4">
-        <v>1.6664796977090301E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -912,31 +912,31 @@
         <v>17</v>
       </c>
       <c r="C11" s="4">
-        <v>9.5335019894994804E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="4">
-        <v>5.7766724164729201E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="4">
-        <v>6.9208221720395605E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="4">
-        <v>1.6646202596872502E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G11" s="4">
-        <v>3.8801988373017202E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H11" s="4">
-        <v>3.0417433190162001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="4">
-        <v>3.4981214609335801E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="4">
-        <v>1.7841694837639299</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>4.9910319234291599E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -947,31 +947,31 @@
         <v>19</v>
       </c>
       <c r="C12" s="4">
-        <v>1.54592812741426E-10</v>
+        <v>1E-10</v>
       </c>
       <c r="D12" s="4">
-        <v>5.7384012563315195E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="E12" s="4">
-        <v>1.3889468152705799E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F12" s="4">
-        <v>3.4120700906538302E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="G12" s="4">
-        <v>1.2459567054453601E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="H12" s="4">
-        <v>1.5395077541309E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I12" s="4">
-        <v>2.0175854964789199E-11</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="J12" s="4">
-        <v>2.0583739035929901E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K12" s="4">
-        <v>1.11104573947875E-11</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -982,31 +982,31 @@
         <v>19</v>
       </c>
       <c r="C13" s="4">
-        <v>1.29501067501347E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="D13" s="4">
-        <v>1.83021931961603E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="E13" s="4">
-        <v>4.2718207902545001E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F13" s="4">
-        <v>1.33841949863525E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="G13" s="4">
-        <v>9.8791143715731297E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="H13" s="4">
-        <v>1.7375602129586001E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="I13" s="4">
-        <v>6.8107816436805002E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="J13" s="4">
-        <v>1.03756286942371E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="K13" s="4">
-        <v>3.1528630254645501E-10</v>
+        <v>1E-10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1017,31 +1017,31 @@
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <v>0.14686770744904101</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="4">
-        <v>0.16753673158056701</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="4">
-        <v>0.13367178949209499</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="4">
-        <v>0.197636833550279</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="4">
-        <v>4.9128336783275599E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="4">
-        <v>9.6368275046824103E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="4">
-        <v>3.8691556090039501E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J14" s="4">
-        <v>0.11454858395824</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="4">
-        <v>3.2195255813639999E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1052,31 +1052,31 @@
         <v>24</v>
       </c>
       <c r="C15" s="4">
-        <v>2.2656332797641801</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>25.691537221582401</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4">
-        <v>37.739891922168397</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4">
-        <v>6.4803368804342103</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4">
-        <v>0.93925677584764899</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>2.6645075006021202</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>5.9824293396330601E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="4">
-        <v>8.2325026121157308</v>
+        <v>10</v>
       </c>
       <c r="K15" s="4">
-        <v>4.82531537813315E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1087,31 +1087,31 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>6.2490857468113696E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D16" s="4">
-        <v>6.0604617464145394E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E16" s="4">
-        <v>1.2603105505294299E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F16" s="4">
-        <v>8.6154115706664605E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="G16" s="4">
-        <v>2.8585074303260402E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H16" s="4">
-        <v>2.24192017828983E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I16" s="4">
-        <v>2.12479651865959E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="J16" s="4">
-        <v>7.7988386233551203E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K16" s="4">
-        <v>9.1029038002147496E-10</v>
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1122,31 +1122,31 @@
         <v>28</v>
       </c>
       <c r="C17" s="4">
-        <v>7.6933255045541103E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="4">
-        <v>9.9684485751265501E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="4">
-        <v>9.0486592607716201E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F17" s="4">
-        <v>8.5157990992360804E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="4">
-        <v>1.41636269338338E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H17" s="4">
-        <v>1.03677859550783E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="4">
-        <v>1.7565123601504899E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J17" s="4">
-        <v>0.29019110108783702</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="4">
-        <v>1.01955804447915E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1157,31 +1157,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="4">
-        <v>47.614467303542597</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
-        <v>41.156980681969102</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4">
-        <v>35.769407781906402</v>
+        <v>100</v>
       </c>
       <c r="F18" s="4">
-        <v>57.885465377396201</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4">
-        <v>8.5035904142657195</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4">
-        <v>74.084525989869903</v>
+        <v>100</v>
       </c>
       <c r="I18" s="4">
-        <v>10.3147979363792</v>
+        <v>10</v>
       </c>
       <c r="J18" s="4">
-        <v>156.18865512668401</v>
+        <v>100</v>
       </c>
       <c r="K18" s="4">
-        <v>0.92742148620960296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1192,31 +1192,31 @@
         <v>32</v>
       </c>
       <c r="C19" s="4">
-        <v>5.9997047331950402E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D19" s="4">
-        <v>5.1830716663505902E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E19" s="4">
-        <v>1.7952456710425599E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F19" s="4">
-        <v>1.33172863402808E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="G19" s="4">
-        <v>2.91433029490439E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H19" s="4">
-        <v>1.1137665783545899E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I19" s="4">
-        <v>2.0123797969927101E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="J19" s="4">
-        <v>5.7527937470242101E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="K19" s="4">
-        <v>8.9388650106257803E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1227,31 +1227,31 @@
         <v>34</v>
       </c>
       <c r="C20" s="4">
-        <v>2.0420648144848101</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>5.0812633687955397</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
-        <v>5.1581210302995704</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
-        <v>7.0078986706228799</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4">
-        <v>0.570479182601345</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>2.10398787221955</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0.41618353545801001</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>4.4942523792634299</v>
+        <v>10</v>
       </c>
       <c r="K20" s="4">
-        <v>0.87707779540090003</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
